--- a/Teile und Preise Ladebox 2.6.xlsx
+++ b/Teile und Preise Ladebox 2.6.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="199">
   <si>
     <t>Versand</t>
   </si>
@@ -428,12 +428,6 @@
   </si>
   <si>
     <t>Silizium-Diode 1N4007</t>
-  </si>
-  <si>
-    <t>RND 200-00015</t>
-  </si>
-  <si>
-    <t>https://www.reichelt.de/leistungsrelais-1-schliesser-12-v-dc-7-a-rnd-200-00015-p222512.html</t>
   </si>
   <si>
     <t>Sollte irgendetwas nicht korrekt sein, würde ich mich über eine Nachricht freuen, damit ich dies korrigieren kann.</t>
@@ -868,7 +862,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -914,34 +908,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -961,6 +928,34 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -1245,7 +1240,7 @@
   <dimension ref="A1:J92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="H73" sqref="H73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1253,8 +1248,8 @@
     <col min="1" max="1" width="11.5703125" style="3" customWidth="1"/>
     <col min="2" max="2" width="37.7109375" style="4" customWidth="1"/>
     <col min="3" max="3" width="5" style="4" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" style="42" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" style="42" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" style="27" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="27" customWidth="1"/>
     <col min="6" max="6" width="8.28515625" style="10" customWidth="1"/>
     <col min="7" max="7" width="2.5703125" style="4" customWidth="1"/>
     <col min="8" max="8" width="15.7109375" style="4" customWidth="1"/>
@@ -1264,87 +1259,87 @@
     <col min="12" max="16384" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="36" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
-        <v>198</v>
+    <row r="1" spans="1:10" s="37" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="36" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-    </row>
-    <row r="3" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+    </row>
+    <row r="3" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="38" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="34" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
       <c r="F11" s="4"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="34" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="34" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
       <c r="F14" s="4"/>
       <c r="I14" s="4"/>
     </row>
     <row r="15" spans="1:10" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="D15" s="41" t="s">
+        <v>133</v>
+      </c>
+      <c r="D15" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="43" t="s">
+      <c r="E15" s="28" t="s">
         <v>0</v>
       </c>
       <c r="F15" s="7" t="s">
@@ -1356,16 +1351,16 @@
       <c r="I15" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="J15" s="47" t="s">
+      <c r="J15" s="32" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
-        <v>133</v>
+      <c r="A17" s="33" t="s">
+        <v>131</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C17" s="4">
         <v>1</v>
@@ -1381,17 +1376,17 @@
         <v>8.5299999999999994</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="J17" s="44" t="s">
-        <v>199</v>
+        <v>198</v>
+      </c>
+      <c r="J17" s="29" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="23"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="4" t="s">
         <v>36</v>
       </c>
@@ -1399,14 +1394,14 @@
         <v>1</v>
       </c>
       <c r="D18" s="19">
-        <v>4.8</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="E18" s="19">
         <v>5.95</v>
       </c>
       <c r="F18" s="18">
         <f>C18*D18+E18</f>
-        <v>10.75</v>
+        <v>10.55</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>4</v>
@@ -1419,9 +1414,9 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="23"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C19" s="4">
         <v>1</v>
@@ -1429,7 +1424,7 @@
       <c r="D19" s="19">
         <v>1.36</v>
       </c>
-      <c r="E19" s="42">
+      <c r="E19" s="27">
         <v>0</v>
       </c>
       <c r="F19" s="18">
@@ -1440,14 +1435,14 @@
         <v>7</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="J19" s="44" t="s">
-        <v>161</v>
+        <v>160</v>
+      </c>
+      <c r="J19" s="29" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="23"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="4" t="s">
         <v>33</v>
       </c>
@@ -1457,7 +1452,7 @@
       <c r="D20" s="19">
         <v>0.05</v>
       </c>
-      <c r="E20" s="42">
+      <c r="E20" s="27">
         <v>0</v>
       </c>
       <c r="F20" s="18">
@@ -1475,7 +1470,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="23"/>
+      <c r="A21" s="33"/>
       <c r="B21" s="9" t="s">
         <v>12</v>
       </c>
@@ -1485,7 +1480,7 @@
       <c r="D21" s="19">
         <v>0.09</v>
       </c>
-      <c r="E21" s="42">
+      <c r="E21" s="27">
         <v>0</v>
       </c>
       <c r="F21" s="18">
@@ -1507,8 +1502,8 @@
       <c r="F22" s="18"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="23" t="s">
-        <v>138</v>
+      <c r="A23" s="33" t="s">
+        <v>136</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>95</v>
@@ -1519,7 +1514,7 @@
       <c r="D23" s="19">
         <v>0.67</v>
       </c>
-      <c r="E23" s="42">
+      <c r="E23" s="27">
         <v>0</v>
       </c>
       <c r="F23" s="18">
@@ -1530,14 +1525,14 @@
         <v>7</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J23" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="23"/>
+      <c r="A24" s="33"/>
       <c r="B24" s="14" t="s">
         <v>122</v>
       </c>
@@ -1547,7 +1542,7 @@
       <c r="D24" s="19">
         <v>0.9</v>
       </c>
-      <c r="E24" s="42">
+      <c r="E24" s="27">
         <v>0</v>
       </c>
       <c r="F24" s="18">
@@ -1558,16 +1553,16 @@
         <v>4</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J24" s="12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="23"/>
+      <c r="A25" s="33"/>
       <c r="B25" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C25" s="4">
         <v>1</v>
@@ -1575,7 +1570,7 @@
       <c r="D25" s="19">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E25" s="42">
+      <c r="E25" s="27">
         <v>0</v>
       </c>
       <c r="F25" s="18">
@@ -1586,14 +1581,14 @@
         <v>7</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J25" s="12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="23"/>
+      <c r="A26" s="33"/>
       <c r="B26" s="4" t="s">
         <v>110</v>
       </c>
@@ -1621,7 +1616,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="23"/>
+      <c r="A27" s="33"/>
       <c r="B27" s="4" t="s">
         <v>102</v>
       </c>
@@ -1631,7 +1626,7 @@
       <c r="D27" s="19">
         <v>0.02</v>
       </c>
-      <c r="E27" s="42">
+      <c r="E27" s="27">
         <v>0</v>
       </c>
       <c r="F27" s="18">
@@ -1649,9 +1644,9 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="23"/>
+      <c r="A28" s="33"/>
       <c r="B28" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C28" s="4">
         <v>1</v>
@@ -1659,7 +1654,7 @@
       <c r="D28" s="19">
         <v>0.04</v>
       </c>
-      <c r="E28" s="42">
+      <c r="E28" s="27">
         <v>0</v>
       </c>
       <c r="F28" s="18">
@@ -1670,14 +1665,14 @@
         <v>7</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="J28" s="45" t="s">
-        <v>167</v>
+        <v>143</v>
+      </c>
+      <c r="J28" s="30" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="23"/>
+      <c r="A29" s="33"/>
       <c r="B29" s="4" t="s">
         <v>114</v>
       </c>
@@ -1687,7 +1682,7 @@
       <c r="D29" s="19">
         <v>0.02</v>
       </c>
-      <c r="E29" s="42">
+      <c r="E29" s="27">
         <v>0</v>
       </c>
       <c r="F29" s="18">
@@ -1709,7 +1704,7 @@
       <c r="F30" s="18"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="33" t="s">
         <v>16</v>
       </c>
       <c r="B31" s="4" t="s">
@@ -1721,7 +1716,7 @@
       <c r="D31" s="19">
         <v>0.18</v>
       </c>
-      <c r="E31" s="42">
+      <c r="E31" s="27">
         <v>0</v>
       </c>
       <c r="F31" s="18">
@@ -1739,7 +1734,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="23"/>
+      <c r="A32" s="33"/>
       <c r="B32" s="9" t="s">
         <v>37</v>
       </c>
@@ -1749,7 +1744,7 @@
       <c r="D32" s="19">
         <v>3.36</v>
       </c>
-      <c r="E32" s="42">
+      <c r="E32" s="27">
         <v>0</v>
       </c>
       <c r="F32" s="18">
@@ -1767,7 +1762,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="23"/>
+      <c r="A33" s="33"/>
       <c r="B33" s="4" t="s">
         <v>39</v>
       </c>
@@ -1777,7 +1772,7 @@
       <c r="D33" s="19">
         <v>0.08</v>
       </c>
-      <c r="E33" s="42">
+      <c r="E33" s="27">
         <v>0</v>
       </c>
       <c r="F33" s="18">
@@ -1795,7 +1790,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="23"/>
+      <c r="A34" s="33"/>
       <c r="B34" s="4" t="s">
         <v>40</v>
       </c>
@@ -1805,7 +1800,7 @@
       <c r="D34" s="19">
         <v>0.02</v>
       </c>
-      <c r="E34" s="42">
+      <c r="E34" s="27">
         <v>0</v>
       </c>
       <c r="F34" s="18">
@@ -1827,7 +1822,7 @@
       <c r="F35" s="18"/>
     </row>
     <row r="36" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="23" t="s">
+      <c r="A36" s="33" t="s">
         <v>49</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -1839,7 +1834,7 @@
       <c r="D36" s="19">
         <v>0.06</v>
       </c>
-      <c r="E36" s="42">
+      <c r="E36" s="27">
         <v>0</v>
       </c>
       <c r="F36" s="18">
@@ -1850,14 +1845,14 @@
         <v>7</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="23"/>
+      <c r="A37" s="33"/>
       <c r="B37" s="9" t="s">
         <v>123</v>
       </c>
@@ -1867,7 +1862,7 @@
       <c r="D37" s="19">
         <v>4.5999999999999996</v>
       </c>
-      <c r="E37" s="42">
+      <c r="E37" s="27">
         <v>0</v>
       </c>
       <c r="F37" s="18">
@@ -1885,7 +1880,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="23"/>
+      <c r="A38" s="33"/>
       <c r="B38" s="9" t="s">
         <v>124</v>
       </c>
@@ -1895,7 +1890,7 @@
       <c r="D38" s="19">
         <v>6.7</v>
       </c>
-      <c r="E38" s="42">
+      <c r="E38" s="27">
         <v>0</v>
       </c>
       <c r="F38" s="18">
@@ -1917,8 +1912,8 @@
       <c r="F39" s="18"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="23" t="s">
-        <v>139</v>
+      <c r="A40" s="33" t="s">
+        <v>137</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>78</v>
@@ -1942,14 +1937,14 @@
       <c r="I40" s="11">
         <v>32855188188</v>
       </c>
-      <c r="J40" s="45" t="s">
-        <v>177</v>
+      <c r="J40" s="30" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="23"/>
+      <c r="A41" s="33"/>
       <c r="B41" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C41" s="4">
         <v>25</v>
@@ -1957,7 +1952,7 @@
       <c r="D41" s="19">
         <v>0.03</v>
       </c>
-      <c r="E41" s="42">
+      <c r="E41" s="27">
         <v>0</v>
       </c>
       <c r="F41" s="18">
@@ -1975,7 +1970,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="23"/>
+      <c r="A42" s="33"/>
       <c r="B42" s="4" t="s">
         <v>125</v>
       </c>
@@ -1985,7 +1980,7 @@
       <c r="D42" s="19">
         <v>0.02</v>
       </c>
-      <c r="E42" s="42">
+      <c r="E42" s="27">
         <v>0</v>
       </c>
       <c r="F42" s="18">
@@ -2003,17 +1998,17 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="23"/>
+      <c r="A43" s="33"/>
       <c r="B43" s="9" t="s">
         <v>99</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D43" s="42" t="s">
+      <c r="D43" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="E43" s="42" t="s">
+      <c r="E43" s="27" t="s">
         <v>87</v>
       </c>
       <c r="F43" s="19">
@@ -2023,7 +2018,7 @@
         <v>87</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -2031,11 +2026,11 @@
       <c r="F44" s="18"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="23" t="s">
-        <v>132</v>
+      <c r="A45" s="33" t="s">
+        <v>130</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C45" s="4">
         <v>3</v>
@@ -2043,7 +2038,7 @@
       <c r="D45" s="19">
         <v>0.04</v>
       </c>
-      <c r="E45" s="42">
+      <c r="E45" s="27">
         <v>0</v>
       </c>
       <c r="F45" s="18">
@@ -2061,7 +2056,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="23"/>
+      <c r="A46" s="33"/>
       <c r="B46" s="4" t="s">
         <v>18</v>
       </c>
@@ -2071,7 +2066,7 @@
       <c r="D46" s="19">
         <v>1.99</v>
       </c>
-      <c r="E46" s="42">
+      <c r="E46" s="27">
         <v>0</v>
       </c>
       <c r="F46" s="18">
@@ -2089,9 +2084,9 @@
       </c>
     </row>
     <row r="47" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="23"/>
+      <c r="A47" s="33"/>
       <c r="B47" s="9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C47" s="21">
         <v>1</v>
@@ -2114,21 +2109,21 @@
         <v>87</v>
       </c>
       <c r="J47" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="48" spans="1:10" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="23"/>
+      <c r="A48" s="33"/>
       <c r="B48" s="9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D48" s="42" t="s">
+      <c r="D48" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="E48" s="42" t="s">
+      <c r="E48" s="27" t="s">
         <v>87</v>
       </c>
       <c r="F48" s="19">
@@ -2139,16 +2134,16 @@
         <v>87</v>
       </c>
       <c r="J48" s="21" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D49" s="40"/>
-      <c r="E49" s="40"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
       <c r="F49" s="4"/>
     </row>
     <row r="50" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="23" t="s">
+      <c r="A50" s="33" t="s">
         <v>121</v>
       </c>
       <c r="B50" s="14" t="s">
@@ -2160,7 +2155,7 @@
       <c r="D50" s="19">
         <v>90</v>
       </c>
-      <c r="E50" s="42">
+      <c r="E50" s="27">
         <v>0</v>
       </c>
       <c r="F50" s="18">
@@ -2178,7 +2173,7 @@
       </c>
     </row>
     <row r="51" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="23"/>
+      <c r="A51" s="33"/>
       <c r="B51" s="4" t="s">
         <v>119</v>
       </c>
@@ -2188,7 +2183,7 @@
       <c r="D51" s="19">
         <v>0.81</v>
       </c>
-      <c r="E51" s="42">
+      <c r="E51" s="27">
         <v>0</v>
       </c>
       <c r="F51" s="18">
@@ -2196,17 +2191,17 @@
         <v>0.81</v>
       </c>
       <c r="H51" s="9" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I51" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="J51" s="46" t="s">
-        <v>187</v>
+        <v>184</v>
+      </c>
+      <c r="J51" s="31" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="23"/>
+      <c r="A52" s="33"/>
       <c r="B52" s="4" t="s">
         <v>120</v>
       </c>
@@ -2216,7 +2211,7 @@
       <c r="D52" s="19">
         <v>0.5</v>
       </c>
-      <c r="E52" s="42">
+      <c r="E52" s="27">
         <v>0</v>
       </c>
       <c r="F52" s="18">
@@ -2224,17 +2219,17 @@
         <v>2</v>
       </c>
       <c r="H52" s="9" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I52" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="J52" s="46" t="s">
-        <v>188</v>
+        <v>187</v>
+      </c>
+      <c r="J52" s="31" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="23"/>
+      <c r="A53" s="33"/>
       <c r="B53" s="4" t="s">
         <v>118</v>
       </c>
@@ -2244,7 +2239,7 @@
       <c r="D53" s="19">
         <v>0.39</v>
       </c>
-      <c r="E53" s="42">
+      <c r="E53" s="27">
         <v>0</v>
       </c>
       <c r="F53" s="18">
@@ -2252,17 +2247,17 @@
         <v>1.17</v>
       </c>
       <c r="H53" s="9" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I53" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="J53" s="46" t="s">
-        <v>191</v>
+        <v>188</v>
+      </c>
+      <c r="J53" s="31" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="23"/>
+      <c r="A54" s="33"/>
       <c r="B54" s="4" t="s">
         <v>41</v>
       </c>
@@ -2290,7 +2285,7 @@
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="23"/>
+      <c r="A55" s="33"/>
       <c r="B55" s="4" t="s">
         <v>98</v>
       </c>
@@ -2300,7 +2295,7 @@
       <c r="D55" s="19">
         <v>0.22</v>
       </c>
-      <c r="E55" s="42">
+      <c r="E55" s="27">
         <v>0</v>
       </c>
       <c r="F55" s="18">
@@ -2325,7 +2320,7 @@
       <c r="J56" s="12"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="24" t="s">
+      <c r="A57" s="40" t="s">
         <v>111</v>
       </c>
       <c r="B57" s="4" t="s">
@@ -2334,24 +2329,24 @@
       <c r="C57" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D57" s="42" t="s">
+      <c r="D57" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="E57" s="42" t="s">
+      <c r="E57" s="27" t="s">
         <v>87</v>
       </c>
       <c r="F57" s="19">
         <v>8</v>
       </c>
-      <c r="H57" s="29" t="s">
+      <c r="H57" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="I57" s="29"/>
+      <c r="I57" s="35"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="24"/>
+      <c r="A58" s="40"/>
       <c r="B58" s="9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C58" s="4">
         <v>1</v>
@@ -2359,7 +2354,7 @@
       <c r="D58" s="19">
         <v>0.35</v>
       </c>
-      <c r="E58" s="42">
+      <c r="E58" s="27">
         <v>0</v>
       </c>
       <c r="F58" s="18">
@@ -2370,16 +2365,16 @@
         <v>7</v>
       </c>
       <c r="I58" s="11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J58" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="59" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="24"/>
+      <c r="A59" s="40"/>
       <c r="B59" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C59" s="22">
         <v>1</v>
@@ -2387,7 +2382,7 @@
       <c r="D59" s="19">
         <v>0.1</v>
       </c>
-      <c r="E59" s="42">
+      <c r="E59" s="27">
         <v>0</v>
       </c>
       <c r="F59" s="18">
@@ -2398,14 +2393,14 @@
         <v>7</v>
       </c>
       <c r="I59" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J59" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="24"/>
+      <c r="A60" s="40"/>
       <c r="B60" s="4" t="s">
         <v>103</v>
       </c>
@@ -2415,7 +2410,7 @@
       <c r="D60" s="19">
         <v>0.25</v>
       </c>
-      <c r="E60" s="42">
+      <c r="E60" s="27">
         <v>0</v>
       </c>
       <c r="F60" s="18">
@@ -2433,7 +2428,7 @@
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="24"/>
+      <c r="A61" s="40"/>
       <c r="B61" s="4" t="s">
         <v>109</v>
       </c>
@@ -2443,7 +2438,7 @@
       <c r="D61" s="19">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E61" s="42">
+      <c r="E61" s="27">
         <v>0</v>
       </c>
       <c r="F61" s="18">
@@ -2465,8 +2460,8 @@
       <c r="F62" s="18"/>
     </row>
     <row r="63" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="23" t="s">
-        <v>134</v>
+      <c r="A63" s="33" t="s">
+        <v>132</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>58</v>
@@ -2477,7 +2472,7 @@
       <c r="D63" s="19">
         <v>4.2</v>
       </c>
-      <c r="E63" s="42">
+      <c r="E63" s="27">
         <v>0</v>
       </c>
       <c r="F63" s="18">
@@ -2488,14 +2483,14 @@
         <v>7</v>
       </c>
       <c r="I63" s="11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J63" s="12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="23"/>
+      <c r="A64" s="33"/>
       <c r="B64" s="4" t="s">
         <v>59</v>
       </c>
@@ -2505,7 +2500,7 @@
       <c r="D64" s="19">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E64" s="42">
+      <c r="E64" s="27">
         <v>0</v>
       </c>
       <c r="F64" s="18">
@@ -2523,7 +2518,7 @@
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="23"/>
+      <c r="A65" s="33"/>
       <c r="B65" s="4" t="s">
         <v>55</v>
       </c>
@@ -2533,7 +2528,7 @@
       <c r="D65" s="19">
         <v>2.65</v>
       </c>
-      <c r="E65" s="42">
+      <c r="E65" s="27">
         <v>0</v>
       </c>
       <c r="F65" s="18">
@@ -2551,7 +2546,7 @@
       </c>
     </row>
     <row r="66" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66" s="23"/>
+      <c r="A66" s="33"/>
       <c r="B66" s="4" t="s">
         <v>56</v>
       </c>
@@ -2561,7 +2556,7 @@
       <c r="D66" s="19">
         <v>4</v>
       </c>
-      <c r="E66" s="42">
+      <c r="E66" s="27">
         <v>0</v>
       </c>
       <c r="F66" s="18">
@@ -2569,17 +2564,17 @@
         <v>4</v>
       </c>
       <c r="H66" s="9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I66" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="J66" t="s">
         <v>193</v>
       </c>
-      <c r="J66" t="s">
-        <v>195</v>
-      </c>
     </row>
     <row r="67" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="23"/>
+      <c r="A67" s="33"/>
       <c r="B67" s="4" t="s">
         <v>57</v>
       </c>
@@ -2589,7 +2584,7 @@
       <c r="D67" s="19">
         <v>3</v>
       </c>
-      <c r="E67" s="42">
+      <c r="E67" s="27">
         <v>0</v>
       </c>
       <c r="F67" s="18">
@@ -2597,17 +2592,17 @@
         <v>3</v>
       </c>
       <c r="H67" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="I67" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="J67" s="31" t="s">
         <v>194</v>
       </c>
-      <c r="I67" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="J67" s="46" t="s">
-        <v>196</v>
-      </c>
     </row>
     <row r="68" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="23"/>
+      <c r="A68" s="33"/>
       <c r="B68" s="9" t="s">
         <v>68</v>
       </c>
@@ -2617,7 +2612,7 @@
       <c r="D68" s="19">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E68" s="42">
+      <c r="E68" s="27">
         <v>0</v>
       </c>
       <c r="F68" s="18">
@@ -2628,14 +2623,14 @@
         <v>7</v>
       </c>
       <c r="I68" s="11" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="J68" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="23"/>
+      <c r="A69" s="33"/>
       <c r="B69" s="4" t="s">
         <v>61</v>
       </c>
@@ -2645,7 +2640,7 @@
       <c r="D69" s="19">
         <v>4.3600000000000003</v>
       </c>
-      <c r="E69" s="42">
+      <c r="E69" s="27">
         <v>0</v>
       </c>
       <c r="F69" s="18">
@@ -2663,7 +2658,7 @@
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="23"/>
+      <c r="A70" s="33"/>
       <c r="B70" s="4" t="s">
         <v>62</v>
       </c>
@@ -2673,7 +2668,7 @@
       <c r="D70" s="19">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E70" s="42">
+      <c r="E70" s="27">
         <v>0</v>
       </c>
       <c r="F70" s="18">
@@ -2691,7 +2686,7 @@
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="23"/>
+      <c r="A71" s="33"/>
       <c r="B71" s="4" t="s">
         <v>60</v>
       </c>
@@ -2701,7 +2696,7 @@
       <c r="D71" s="19">
         <v>1.4</v>
       </c>
-      <c r="E71" s="42">
+      <c r="E71" s="27">
         <v>0</v>
       </c>
       <c r="F71" s="18">
@@ -2723,7 +2718,7 @@
       <c r="F72" s="18"/>
     </row>
     <row r="73" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="23" t="s">
+      <c r="A73" s="33" t="s">
         <v>15</v>
       </c>
       <c r="B73" s="9" t="s">
@@ -2747,11 +2742,11 @@
       </c>
       <c r="I73" s="17"/>
       <c r="J73" s="12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="23"/>
+      <c r="A74" s="33"/>
       <c r="B74" s="4" t="s">
         <v>44</v>
       </c>
@@ -2759,14 +2754,14 @@
         <v>2</v>
       </c>
       <c r="D74" s="19">
-        <v>0.95</v>
-      </c>
-      <c r="E74" s="42">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E74" s="27">
         <v>0</v>
       </c>
       <c r="F74" s="18">
         <f>C74*D74+E74</f>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="H74" s="4" t="s">
         <v>4</v>
@@ -2779,7 +2774,7 @@
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="23"/>
+      <c r="A75" s="33"/>
       <c r="B75" s="4" t="s">
         <v>97</v>
       </c>
@@ -2787,27 +2782,28 @@
         <v>1</v>
       </c>
       <c r="D75" s="19">
-        <v>0.36</v>
-      </c>
-      <c r="E75" s="42">
+        <v>0.67</v>
+      </c>
+      <c r="E75" s="27">
         <v>0</v>
       </c>
       <c r="F75" s="18">
         <f>C75*D75+E75</f>
-        <v>0.36</v>
-      </c>
-      <c r="H75" s="4" t="s">
+        <v>0.67</v>
+      </c>
+      <c r="G75" s="23"/>
+      <c r="H75" s="23" t="s">
         <v>7</v>
       </c>
       <c r="I75" s="11" t="s">
-        <v>126</v>
+        <v>163</v>
       </c>
       <c r="J75" s="12" t="s">
-        <v>127</v>
+        <v>164</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="23"/>
+      <c r="A76" s="33"/>
       <c r="B76" s="4" t="s">
         <v>70</v>
       </c>
@@ -2817,7 +2813,7 @@
       <c r="D76" s="19">
         <v>0.03</v>
       </c>
-      <c r="E76" s="42">
+      <c r="E76" s="27">
         <v>0</v>
       </c>
       <c r="F76" s="18">
@@ -2835,22 +2831,22 @@
       </c>
     </row>
     <row r="78" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="26" t="s">
+      <c r="B78" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="E78" s="25">
+      <c r="E78" s="41">
         <f xml:space="preserve"> SUM(F16:F76)</f>
-        <v>517.98</v>
-      </c>
-      <c r="F78" s="25"/>
+        <v>518.39</v>
+      </c>
+      <c r="F78" s="41"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B79" s="26"/>
-      <c r="E79" s="25"/>
-      <c r="F79" s="25"/>
-    </row>
-    <row r="82" spans="1:10" s="33" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A82" s="32" t="s">
+      <c r="B79" s="42"/>
+      <c r="E79" s="41"/>
+      <c r="F79" s="41"/>
+    </row>
+    <row r="82" spans="1:10" s="48" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A82" s="47" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2860,12 +2856,12 @@
         <v>1</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="D83" s="41" t="s">
+        <v>133</v>
+      </c>
+      <c r="D83" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="E83" s="43" t="s">
+      <c r="E83" s="28" t="s">
         <v>0</v>
       </c>
       <c r="F83" s="7" t="s">
@@ -2881,17 +2877,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="30" t="s">
+    <row r="84" spans="1:10" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A84" s="45" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="23" t="s">
-        <v>174</v>
+      <c r="A85" s="33" t="s">
+        <v>172</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C85" s="4">
         <v>1</v>
@@ -2913,13 +2909,13 @@
         <v>274450834212</v>
       </c>
       <c r="J85" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="23"/>
+      <c r="A86" s="33"/>
       <c r="B86" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C86" s="4">
         <v>1</v>
@@ -2927,7 +2923,7 @@
       <c r="D86" s="19">
         <v>11.55</v>
       </c>
-      <c r="E86" s="42">
+      <c r="E86" s="27">
         <v>0</v>
       </c>
       <c r="F86" s="18">
@@ -2945,9 +2941,9 @@
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="23"/>
+      <c r="A87" s="33"/>
       <c r="B87" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C87" s="4">
         <v>1</v>
@@ -2955,7 +2951,7 @@
       <c r="D87" s="19">
         <v>17</v>
       </c>
-      <c r="E87" s="42">
+      <c r="E87" s="27">
         <v>0</v>
       </c>
       <c r="F87" s="18">
@@ -2974,10 +2970,10 @@
     </row>
     <row r="88" spans="1:10" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="20" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C88" s="22">
         <v>10</v>
@@ -2985,7 +2981,7 @@
       <c r="D88" s="19">
         <v>0.3</v>
       </c>
-      <c r="E88" s="42">
+      <c r="E88" s="27">
         <v>0</v>
       </c>
       <c r="F88" s="18">
@@ -2996,19 +2992,19 @@
         <v>4</v>
       </c>
       <c r="I88" s="11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J88" s="12" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" s="28" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="27" t="s">
-        <v>185</v>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" s="44" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A90" s="43" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="24"/>
+      <c r="A91" s="40"/>
       <c r="B91" s="4" t="s">
         <v>51</v>
       </c>
@@ -3018,7 +3014,7 @@
       <c r="D91" s="19">
         <v>0.19</v>
       </c>
-      <c r="E91" s="42">
+      <c r="E91" s="27">
         <v>0</v>
       </c>
       <c r="F91" s="18">
@@ -3029,14 +3025,14 @@
         <v>7</v>
       </c>
       <c r="I91" s="11" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J91" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="24"/>
+      <c r="A92" s="40"/>
       <c r="B92" s="4" t="s">
         <v>53</v>
       </c>
@@ -3046,7 +3042,7 @@
       <c r="D92" s="19">
         <v>0.32</v>
       </c>
-      <c r="E92" s="42">
+      <c r="E92" s="27">
         <v>0</v>
       </c>
       <c r="F92" s="18">
@@ -3065,18 +3061,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="A13:XFD13"/>
-    <mergeCell ref="A6:XFD6"/>
-    <mergeCell ref="A1:XFD1"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A3:XFD3"/>
-    <mergeCell ref="A5:XFD5"/>
-    <mergeCell ref="A10:XFD10"/>
-    <mergeCell ref="A4:XFD4"/>
-    <mergeCell ref="A9:XFD9"/>
-    <mergeCell ref="A8:XFD8"/>
-    <mergeCell ref="A12:XFD12"/>
     <mergeCell ref="A45:A48"/>
     <mergeCell ref="A91:A92"/>
     <mergeCell ref="E78:F79"/>
@@ -3093,6 +3077,18 @@
     <mergeCell ref="A84:XFD84"/>
     <mergeCell ref="A82:XFD82"/>
     <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="A13:XFD13"/>
+    <mergeCell ref="A6:XFD6"/>
+    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A3:XFD3"/>
+    <mergeCell ref="A5:XFD5"/>
+    <mergeCell ref="A10:XFD10"/>
+    <mergeCell ref="A4:XFD4"/>
+    <mergeCell ref="A9:XFD9"/>
+    <mergeCell ref="A8:XFD8"/>
+    <mergeCell ref="A12:XFD12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J45" r:id="rId1"/>
@@ -3125,16 +3121,16 @@
     <hyperlink ref="J61" r:id="rId28"/>
     <hyperlink ref="J58" r:id="rId29"/>
     <hyperlink ref="J23" r:id="rId30"/>
-    <hyperlink ref="J75" r:id="rId31"/>
-    <hyperlink ref="J27" r:id="rId32"/>
-    <hyperlink ref="J29" r:id="rId33"/>
-    <hyperlink ref="J24" r:id="rId34"/>
-    <hyperlink ref="J73" r:id="rId35"/>
-    <hyperlink ref="J88" r:id="rId36"/>
-    <hyperlink ref="J63" r:id="rId37"/>
-    <hyperlink ref="J59" r:id="rId38"/>
-    <hyperlink ref="J19" r:id="rId39"/>
-    <hyperlink ref="J85" r:id="rId40"/>
+    <hyperlink ref="J27" r:id="rId31"/>
+    <hyperlink ref="J29" r:id="rId32"/>
+    <hyperlink ref="J24" r:id="rId33"/>
+    <hyperlink ref="J73" r:id="rId34"/>
+    <hyperlink ref="J88" r:id="rId35"/>
+    <hyperlink ref="J63" r:id="rId36"/>
+    <hyperlink ref="J59" r:id="rId37"/>
+    <hyperlink ref="J19" r:id="rId38"/>
+    <hyperlink ref="J85" r:id="rId39"/>
+    <hyperlink ref="J75" r:id="rId40"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId41"/>

--- a/Teile und Preise Ladebox 2.6.xlsx
+++ b/Teile und Preise Ladebox 2.6.xlsx
@@ -293,9 +293,6 @@
     <t>Folgende Produkte können verwendet werden, falls nicht bei chinesischen Händlern bestellt werden soll:</t>
   </si>
   <si>
-    <t>Typ2-Ladesteckdose 32 A</t>
-  </si>
-  <si>
     <t>https://www.laadkabelwinkel.nl/dsiec-elb-electromagnetic-lock</t>
   </si>
   <si>
@@ -713,13 +710,16 @@
     <t>X96234 / CEE-KUPP 1-16</t>
   </si>
   <si>
-    <t>Teileliste: Mobile Ladebox (Hardware-Version 2.6)</t>
-  </si>
-  <si>
     <t>https://www.reichelt.de/dc-dc-wandler-2-5-w-5-v-500-ma-to-220-lc78-05-0-5-p242823.html oder https://www.voelkner.de/products/1038823/Gaptec-LC7805-0.5-DC-DC-Wandler-Print-12-V-DC-5-V-DC-500mA-2.5W-Anzahl-Ausgaenge-1-x.html</t>
   </si>
   <si>
     <t>LC78_05-0.5 / X728901</t>
+  </si>
+  <si>
+    <t>Typ2-Ladesteckdose 32 A (mit Schraubanschlüssen)</t>
+  </si>
+  <si>
+    <t>Teileliste: Mobile Ladebox (Hardware-Version 2.6) inkl. 2 Adapterkabel</t>
   </si>
 </sst>
 </file>
@@ -931,12 +931,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -948,6 +942,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -956,6 +951,11 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -1239,8 +1239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H73" sqref="H73"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1259,9 +1259,9 @@
     <col min="12" max="16384" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="37" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
-        <v>196</v>
+    <row r="1" spans="1:10" s="46" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="45" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1269,39 +1269,39 @@
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
     </row>
-    <row r="3" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+    <row r="3" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="44" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
+    <row r="4" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="44" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+    <row r="5" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="44" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="38" t="s">
+    <row r="6" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="44" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="47" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="44" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
-        <v>135</v>
+    <row r="10" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="44" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1310,14 +1310,14 @@
       <c r="F11" s="4"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="34" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
-        <v>93</v>
+    <row r="12" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="44" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="44" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1328,13 +1328,13 @@
     </row>
     <row r="15" spans="1:10" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D15" s="26" t="s">
         <v>10</v>
@@ -1346,7 +1346,7 @@
         <v>11</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I15" s="8" t="s">
         <v>69</v>
@@ -1357,10 +1357,10 @@
     </row>
     <row r="17" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C17" s="4">
         <v>1</v>
@@ -1376,13 +1376,13 @@
         <v>8.5299999999999994</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J17" s="29" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1416,7 +1416,7 @@
     <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="33"/>
       <c r="B19" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C19" s="4">
         <v>1</v>
@@ -1435,10 +1435,10 @@
         <v>7</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J19" s="29" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1503,10 +1503,10 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C23" s="4">
         <v>2</v>
@@ -1525,16 +1525,16 @@
         <v>7</v>
       </c>
       <c r="I23" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="J23" s="12" t="s">
         <v>163</v>
-      </c>
-      <c r="J23" s="12" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="33"/>
       <c r="B24" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C24" s="4">
         <v>1</v>
@@ -1553,16 +1553,16 @@
         <v>4</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J24" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="33"/>
       <c r="B25" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C25" s="4">
         <v>1</v>
@@ -1581,16 +1581,16 @@
         <v>7</v>
       </c>
       <c r="I25" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="J25" s="12" t="s">
         <v>128</v>
-      </c>
-      <c r="J25" s="12" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="33"/>
       <c r="B26" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C26" s="4">
         <v>1</v>
@@ -1606,19 +1606,19 @@
         <v>34</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I26" s="11">
         <v>99051000801</v>
       </c>
       <c r="J26" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="33"/>
       <c r="B27" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C27" s="4">
         <v>3</v>
@@ -1637,16 +1637,16 @@
         <v>7</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J27" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="33"/>
       <c r="B28" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C28" s="4">
         <v>1</v>
@@ -1665,16 +1665,16 @@
         <v>7</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J28" s="30" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="33"/>
       <c r="B29" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C29" s="4">
         <v>1</v>
@@ -1693,10 +1693,10 @@
         <v>7</v>
       </c>
       <c r="I29" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="J29" s="12" t="s">
         <v>115</v>
-      </c>
-      <c r="J29" s="12" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -1845,16 +1845,16 @@
         <v>7</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="33"/>
       <c r="B37" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C37" s="4">
         <v>2</v>
@@ -1882,7 +1882,7 @@
     <row r="38" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="33"/>
       <c r="B38" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C38" s="4">
         <v>1</v>
@@ -1913,7 +1913,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="33" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>78</v>
@@ -1932,19 +1932,19 @@
         <v>1.75</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I40" s="11">
         <v>32855188188</v>
       </c>
       <c r="J40" s="30" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="33"/>
       <c r="B41" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C41" s="4">
         <v>25</v>
@@ -1963,7 +1963,7 @@
         <v>7</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J41" s="12" t="s">
         <v>17</v>
@@ -1972,10 +1972,10 @@
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="33"/>
       <c r="B42" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C42" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D42" s="19">
         <v>0.02</v>
@@ -1985,7 +1985,7 @@
       </c>
       <c r="F42" s="18">
         <f>C42*D42+E42</f>
-        <v>0.12</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H42" s="4" t="s">
         <v>7</v>
@@ -2000,7 +2000,7 @@
     <row r="43" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="33"/>
       <c r="B43" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>87</v>
@@ -2018,7 +2018,7 @@
         <v>87</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -2027,10 +2027,10 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="33" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C45" s="4">
         <v>3</v>
@@ -2086,7 +2086,7 @@
     <row r="47" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="33"/>
       <c r="B47" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C47" s="21">
         <v>1</v>
@@ -2103,19 +2103,19 @@
       </c>
       <c r="G47" s="21"/>
       <c r="H47" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I47" s="11" t="s">
         <v>87</v>
       </c>
       <c r="J47" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="48" spans="1:10" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="33"/>
       <c r="B48" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>87</v>
@@ -2134,7 +2134,7 @@
         <v>87</v>
       </c>
       <c r="J48" s="21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -2142,12 +2142,12 @@
       <c r="E49" s="25"/>
       <c r="F49" s="4"/>
     </row>
-    <row r="50" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>89</v>
+        <v>120</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>197</v>
       </c>
       <c r="C50" s="4">
         <v>1</v>
@@ -2163,19 +2163,19 @@
         <v>90</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I50" s="11">
         <v>99051000781</v>
       </c>
       <c r="J50" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="33"/>
       <c r="B51" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C51" s="4">
         <v>1</v>
@@ -2191,19 +2191,19 @@
         <v>0.81</v>
       </c>
       <c r="H51" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I51" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="J51" s="31" t="s">
         <v>184</v>
-      </c>
-      <c r="J51" s="31" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="33"/>
       <c r="B52" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C52" s="4">
         <v>4</v>
@@ -2219,19 +2219,19 @@
         <v>2</v>
       </c>
       <c r="H52" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I52" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J52" s="31" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="33"/>
       <c r="B53" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C53" s="4">
         <v>3</v>
@@ -2247,13 +2247,13 @@
         <v>1.17</v>
       </c>
       <c r="H53" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I53" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="J53" s="31" t="s">
         <v>188</v>
-      </c>
-      <c r="J53" s="31" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -2287,7 +2287,7 @@
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="33"/>
       <c r="B55" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C55" s="4">
         <v>1</v>
@@ -2320,11 +2320,11 @@
       <c r="J56" s="12"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="40" t="s">
+      <c r="A57" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="B57" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>112</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>87</v>
@@ -2338,15 +2338,15 @@
       <c r="F57" s="19">
         <v>8</v>
       </c>
-      <c r="H57" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="I57" s="35"/>
+      <c r="H57" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="I57" s="39"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="40"/>
+      <c r="A58" s="34"/>
       <c r="B58" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C58" s="4">
         <v>1</v>
@@ -2365,16 +2365,16 @@
         <v>7</v>
       </c>
       <c r="I58" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="J58" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="J58" s="12" t="s">
-        <v>154</v>
-      </c>
     </row>
     <row r="59" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="40"/>
+      <c r="A59" s="34"/>
       <c r="B59" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C59" s="22">
         <v>1</v>
@@ -2393,16 +2393,16 @@
         <v>7</v>
       </c>
       <c r="I59" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="J59" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="J59" s="12" t="s">
-        <v>156</v>
-      </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="40"/>
+      <c r="A60" s="34"/>
       <c r="B60" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C60" s="4">
         <v>1</v>
@@ -2421,16 +2421,16 @@
         <v>7</v>
       </c>
       <c r="I60" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="J60" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="J60" s="12" t="s">
-        <v>105</v>
-      </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="40"/>
+      <c r="A61" s="34"/>
       <c r="B61" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C61" s="4">
         <v>1</v>
@@ -2449,10 +2449,10 @@
         <v>7</v>
       </c>
       <c r="I61" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="J61" s="12" t="s">
         <v>106</v>
-      </c>
-      <c r="J61" s="12" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
@@ -2461,7 +2461,7 @@
     </row>
     <row r="63" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="33" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>58</v>
@@ -2483,10 +2483,10 @@
         <v>7</v>
       </c>
       <c r="I63" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J63" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
@@ -2564,13 +2564,13 @@
         <v>4</v>
       </c>
       <c r="H66" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="I66" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="J66" t="s">
         <v>192</v>
-      </c>
-      <c r="I66" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="J66" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -2592,13 +2592,13 @@
         <v>3</v>
       </c>
       <c r="H67" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I67" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J67" s="31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2623,10 +2623,10 @@
         <v>7</v>
       </c>
       <c r="I68" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J68" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
@@ -2742,7 +2742,7 @@
       </c>
       <c r="I73" s="17"/>
       <c r="J73" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
@@ -2776,7 +2776,7 @@
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="33"/>
       <c r="B75" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C75" s="4">
         <v>1</v>
@@ -2796,10 +2796,10 @@
         <v>7</v>
       </c>
       <c r="I75" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="J75" s="12" t="s">
         <v>163</v>
-      </c>
-      <c r="J75" s="12" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
@@ -2831,22 +2831,22 @@
       </c>
     </row>
     <row r="78" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="42" t="s">
-        <v>117</v>
-      </c>
-      <c r="E78" s="41">
+      <c r="B78" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="E78" s="35">
         <f xml:space="preserve"> SUM(F16:F76)</f>
-        <v>518.39</v>
-      </c>
-      <c r="F78" s="41"/>
+        <v>518.41</v>
+      </c>
+      <c r="F78" s="35"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B79" s="42"/>
-      <c r="E79" s="41"/>
-      <c r="F79" s="41"/>
-    </row>
-    <row r="82" spans="1:10" s="48" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A82" s="47" t="s">
+      <c r="B79" s="36"/>
+      <c r="E79" s="35"/>
+      <c r="F79" s="35"/>
+    </row>
+    <row r="82" spans="1:10" s="43" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A82" s="42" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2856,7 +2856,7 @@
         <v>1</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D83" s="26" t="s">
         <v>10</v>
@@ -2868,7 +2868,7 @@
         <v>11</v>
       </c>
       <c r="H83" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I83" s="8" t="s">
         <v>69</v>
@@ -2877,17 +2877,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:10" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="45" t="s">
+    <row r="84" spans="1:10" s="41" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A84" s="40" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="33" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C85" s="4">
         <v>1</v>
@@ -2909,13 +2909,13 @@
         <v>274450834212</v>
       </c>
       <c r="J85" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="33"/>
       <c r="B86" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C86" s="4">
         <v>1</v>
@@ -2943,7 +2943,7 @@
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="33"/>
       <c r="B87" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C87" s="4">
         <v>1</v>
@@ -2970,10 +2970,10 @@
     </row>
     <row r="88" spans="1:10" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C88" s="22">
         <v>10</v>
@@ -2992,19 +2992,19 @@
         <v>4</v>
       </c>
       <c r="I88" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="J88" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="J88" s="12" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" s="44" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="43" t="s">
-        <v>183</v>
+    </row>
+    <row r="90" spans="1:10" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A90" s="37" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="40"/>
+      <c r="A91" s="34"/>
       <c r="B91" s="4" t="s">
         <v>51</v>
       </c>
@@ -3025,14 +3025,14 @@
         <v>7</v>
       </c>
       <c r="I91" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="J91" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="J91" s="12" t="s">
-        <v>182</v>
-      </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="40"/>
+      <c r="A92" s="34"/>
       <c r="B92" s="4" t="s">
         <v>53</v>
       </c>
@@ -3061,6 +3061,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="A13:XFD13"/>
+    <mergeCell ref="A6:XFD6"/>
+    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A3:XFD3"/>
+    <mergeCell ref="A5:XFD5"/>
+    <mergeCell ref="A10:XFD10"/>
+    <mergeCell ref="A4:XFD4"/>
+    <mergeCell ref="A9:XFD9"/>
+    <mergeCell ref="A8:XFD8"/>
+    <mergeCell ref="A12:XFD12"/>
     <mergeCell ref="A45:A48"/>
     <mergeCell ref="A91:A92"/>
     <mergeCell ref="E78:F79"/>
@@ -3077,18 +3089,6 @@
     <mergeCell ref="A84:XFD84"/>
     <mergeCell ref="A82:XFD82"/>
     <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="A13:XFD13"/>
-    <mergeCell ref="A6:XFD6"/>
-    <mergeCell ref="A1:XFD1"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A3:XFD3"/>
-    <mergeCell ref="A5:XFD5"/>
-    <mergeCell ref="A10:XFD10"/>
-    <mergeCell ref="A4:XFD4"/>
-    <mergeCell ref="A9:XFD9"/>
-    <mergeCell ref="A8:XFD8"/>
-    <mergeCell ref="A12:XFD12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J45" r:id="rId1"/>
